--- a/flowers of  happiness db design.xlsx
+++ b/flowers of  happiness db design.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub repos\flowers-of-happiness\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B74F87-8B8F-48C3-9C0A-5929E002E955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB787F30-BCF5-4138-8DCA-0A3EFAAE78A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{312428C2-0FCF-467C-8E48-6A3DB6AE3F0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" firstSheet="1" activeTab="1" xr2:uid="{312428C2-0FCF-467C-8E48-6A3DB6AE3F0F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Структура БД" sheetId="3" r:id="rId1"/>
-    <sheet name="Как будут выглядить мои таб (2)" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="Как будут выглядить мои таблицы" sheetId="1" state="hidden" r:id="rId3"/>
+    <sheet name="Структура БД" sheetId="3" state="hidden" r:id="rId1"/>
+    <sheet name="Контент для сайта" sheetId="4" r:id="rId2"/>
+    <sheet name="Пример Ассортимента" sheetId="5" r:id="rId3"/>
+    <sheet name="Как будут выглядить мои таб (2)" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="Как будут выглядить мои таблицы" sheetId="1" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="103">
   <si>
     <t>цветы</t>
   </si>
@@ -255,13 +257,103 @@
   </si>
   <si>
     <t>Игорь покупает все тюльпаны</t>
+  </si>
+  <si>
+    <t>Контент для сайта</t>
+  </si>
+  <si>
+    <t>Изображения цветов</t>
+  </si>
+  <si>
+    <t>Розы</t>
+  </si>
+  <si>
+    <t>Лилии</t>
+  </si>
+  <si>
+    <t>Тюльпаны</t>
+  </si>
+  <si>
+    <t>Герберы</t>
+  </si>
+  <si>
+    <t>Пионы</t>
+  </si>
+  <si>
+    <t>// Дано:</t>
+  </si>
+  <si>
+    <t>// розы (маленькие - 4 расцветки, большие - 7 расцветок)</t>
+  </si>
+  <si>
+    <t>// трава (5 видов)</t>
+  </si>
+  <si>
+    <t>// лилии - 3 цвета</t>
+  </si>
+  <si>
+    <t>// тюльпаны - 3 цвета</t>
+  </si>
+  <si>
+    <t>// пионы - 2 цвета</t>
+  </si>
+  <si>
+    <t>// герберы - 5 цветов</t>
+  </si>
+  <si>
+    <t>1 вид</t>
+  </si>
+  <si>
+    <t>2 вид</t>
+  </si>
+  <si>
+    <t>3 вид</t>
+  </si>
+  <si>
+    <t>4 вид</t>
+  </si>
+  <si>
+    <t>5 вид</t>
+  </si>
+  <si>
+    <t>Белый</t>
+  </si>
+  <si>
+    <t>Розовый</t>
+  </si>
+  <si>
+    <t>Красный</t>
+  </si>
+  <si>
+    <t>Синий</t>
+  </si>
+  <si>
+    <t>Цвет будет меняться путем наложения заднего фона</t>
+  </si>
+  <si>
+    <t>НУЖНО НАЙТИ 5 ИЗОБРАЖЕНИЙ!</t>
+  </si>
+  <si>
+    <t>Цвета в наличии</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Желтый</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Было принято решение выделить цвета растений в отдельную таблицу. Итоговая структура иная</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,8 +376,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,8 +410,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -359,11 +477,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -384,6 +539,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -396,11 +552,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1094,8 +1267,8 @@
   </sheetPr>
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1113,25 +1286,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14"/>
       <c r="E1" s="4"/>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="12"/>
+      <c r="N1" s="13"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1397,12 +1570,12 @@
         <v>300</v>
       </c>
       <c r="E12" s="6"/>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1550,12 +1723,25 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+    </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
       <c r="G20" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
       <c r="G21" t="s">
         <v>32</v>
       </c>
@@ -1595,11 +1781,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="F12:I12"/>
+    <mergeCell ref="B19:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1607,6 +1794,273 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426BB35D-363A-4928-8899-B03EC46C9FA5}">
+  <dimension ref="B2:I20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="50.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="10"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H14" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H15" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H16" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="H7:H11"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8194B6A0-4322-4A2B-A212-EE6D3B694663}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF389233-CFD9-43EE-8F4B-8A067CD8DE39}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -1628,22 +2082,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="E1" s="10" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="K1" s="10" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="K1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="10"/>
+      <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1828,19 +2282,19 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
       <c r="I13" s="3"/>
     </row>
   </sheetData>
@@ -1855,7 +2309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44DA656-146E-4E44-86C2-C1959E38177C}">
   <dimension ref="A1:P16"/>
   <sheetViews>
@@ -1877,27 +2331,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="E1" s="10" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="N1" s="10" t="s">
+      <c r="L1" s="14"/>
+      <c r="N1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2117,16 +2571,16 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/flowers of  happiness db design.xlsx
+++ b/flowers of  happiness db design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub repos\flowers-of-happiness\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB787F30-BCF5-4138-8DCA-0A3EFAAE78A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAFA344-C04D-46E5-A4CC-1D5CC0A23146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" firstSheet="1" activeTab="1" xr2:uid="{312428C2-0FCF-467C-8E48-6A3DB6AE3F0F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="114">
   <si>
     <t>цветы</t>
   </si>
@@ -259,12 +259,6 @@
     <t>Игорь покупает все тюльпаны</t>
   </si>
   <si>
-    <t>Контент для сайта</t>
-  </si>
-  <si>
-    <t>Изображения цветов</t>
-  </si>
-  <si>
     <t>Розы</t>
   </si>
   <si>
@@ -328,12 +322,6 @@
     <t>Синий</t>
   </si>
   <si>
-    <t>Цвет будет меняться путем наложения заднего фона</t>
-  </si>
-  <si>
-    <t>НУЖНО НАЙТИ 5 ИЗОБРАЖЕНИЙ!</t>
-  </si>
-  <si>
     <t>Цвета в наличии</t>
   </si>
   <si>
@@ -347,13 +335,61 @@
   </si>
   <si>
     <t>Было принято решение выделить цвета растений в отдельную таблицу. Итоговая структура иная</t>
+  </si>
+  <si>
+    <t>Цвет растений будет определяться тем, на каком фоне находится растение</t>
+  </si>
+  <si>
+    <t>Название растения</t>
+  </si>
+  <si>
+    <t>Цену растения</t>
+  </si>
+  <si>
+    <t>Кол. в наличии</t>
+  </si>
+  <si>
+    <t>Цвет растения</t>
+  </si>
+  <si>
+    <t>Для отображения ассортимента нужно взять слудеющие данные</t>
+  </si>
+  <si>
+    <t>Из таблицы fl_flowers_storage</t>
+  </si>
+  <si>
+    <t>Из таблицы fl_colors</t>
+  </si>
+  <si>
+    <t>Поскольку данные берутся из 2х таблиц</t>
+  </si>
+  <si>
+    <t>будет удобно создать представление</t>
+  </si>
+  <si>
+    <t>Цена</t>
+  </si>
+  <si>
+    <t>Ассортимент</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>Оформленные заказы будут храниться в БД.</t>
+  </si>
+  <si>
+    <t>Их не будут отображать на сайте</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$₽-419]_-;\-* #,##0.00\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,8 +432,17 @@
       <family val="3"/>
       <charset val="204"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,14 +455,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -501,19 +540,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -540,6 +566,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -552,14 +581,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -567,14 +590,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -836,6 +860,55 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>106371</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDF05108-49D9-4A20-915B-31F6E0766DE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="0"/>
+          <a:ext cx="1935171" cy="1895474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1286,25 +1359,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="15"/>
       <c r="E1" s="4"/>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="13"/>
+      <c r="N1" s="14"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1570,12 +1643,12 @@
         <v>300</v>
       </c>
       <c r="E12" s="6"/>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1724,24 +1797,24 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="B19" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
       <c r="G20" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
       <c r="G21" t="s">
         <v>32</v>
       </c>
@@ -1795,251 +1868,540 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426BB35D-363A-4928-8899-B03EC46C9FA5}">
-  <dimension ref="B2:I20"/>
+  <dimension ref="B4:K108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="50.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="K5" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="23">
+        <v>200</v>
+      </c>
+      <c r="I7" s="1">
+        <v>15</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="23">
+        <v>150</v>
+      </c>
+      <c r="I8" s="1">
+        <v>30</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" s="23">
+        <v>180</v>
+      </c>
+      <c r="I9" s="1">
+        <v>20</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" s="23">
+        <v>300</v>
+      </c>
+      <c r="I10" s="1">
+        <v>7</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="23">
+        <v>250</v>
+      </c>
+      <c r="I11" s="1">
+        <v>8</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H14" s="22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H15" s="22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H16" s="22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H17" s="22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H18" s="22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H19" s="22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H20" s="22" t="s">
-        <v>86</v>
-      </c>
+      <c r="H12" s="23">
+        <v>120</v>
+      </c>
+      <c r="I12" s="1">
+        <v>24</v>
+      </c>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K14" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K15" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K34" s="6"/>
+    </row>
+    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K35" s="6"/>
+    </row>
+    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K36" s="6"/>
+    </row>
+    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K38" s="6"/>
+    </row>
+    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K39" s="6"/>
+    </row>
+    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K40" s="6"/>
+    </row>
+    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K41" s="6"/>
+    </row>
+    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K42" s="6"/>
+    </row>
+    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K43" s="6"/>
+    </row>
+    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K44" s="6"/>
+    </row>
+    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K45" s="6"/>
+    </row>
+    <row r="46" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K46" s="6"/>
+    </row>
+    <row r="47" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K47" s="6"/>
+    </row>
+    <row r="48" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K48" s="6"/>
+    </row>
+    <row r="49" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K49" s="6"/>
+    </row>
+    <row r="50" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K50" s="6"/>
+    </row>
+    <row r="51" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K51" s="6"/>
+    </row>
+    <row r="52" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K52" s="6"/>
+    </row>
+    <row r="53" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K53" s="6"/>
+    </row>
+    <row r="54" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K54" s="6"/>
+    </row>
+    <row r="55" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K55" s="6"/>
+    </row>
+    <row r="56" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K56" s="6"/>
+    </row>
+    <row r="57" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K57" s="6"/>
+    </row>
+    <row r="58" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K58" s="6"/>
+    </row>
+    <row r="59" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K59" s="6"/>
+    </row>
+    <row r="60" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K60" s="6"/>
+    </row>
+    <row r="61" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K61" s="6"/>
+    </row>
+    <row r="62" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K62" s="6"/>
+    </row>
+    <row r="63" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K63" s="6"/>
+    </row>
+    <row r="64" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K64" s="6"/>
+    </row>
+    <row r="65" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K65" s="6"/>
+    </row>
+    <row r="66" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K66" s="6"/>
+    </row>
+    <row r="67" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K67" s="6"/>
+    </row>
+    <row r="68" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K68" s="6"/>
+    </row>
+    <row r="69" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K69" s="6"/>
+    </row>
+    <row r="70" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K70" s="6"/>
+    </row>
+    <row r="71" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K71" s="6"/>
+    </row>
+    <row r="72" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K72" s="6"/>
+    </row>
+    <row r="73" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K73" s="6"/>
+    </row>
+    <row r="74" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K74" s="6"/>
+    </row>
+    <row r="75" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K75" s="6"/>
+    </row>
+    <row r="76" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K76" s="6"/>
+    </row>
+    <row r="77" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K77" s="6"/>
+    </row>
+    <row r="78" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K78" s="6"/>
+    </row>
+    <row r="79" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K79" s="6"/>
+    </row>
+    <row r="80" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K80" s="6"/>
+    </row>
+    <row r="81" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K81" s="6"/>
+    </row>
+    <row r="82" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K82" s="6"/>
+    </row>
+    <row r="83" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K83" s="6"/>
+    </row>
+    <row r="84" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K84" s="6"/>
+    </row>
+    <row r="85" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K85" s="6"/>
+    </row>
+    <row r="86" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K86" s="6"/>
+    </row>
+    <row r="87" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K87" s="6"/>
+    </row>
+    <row r="88" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K88" s="6"/>
+    </row>
+    <row r="89" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K89" s="6"/>
+    </row>
+    <row r="90" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K90" s="6"/>
+    </row>
+    <row r="91" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K91" s="6"/>
+    </row>
+    <row r="92" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K92" s="6"/>
+    </row>
+    <row r="93" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K93" s="6"/>
+    </row>
+    <row r="94" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K94" s="6"/>
+    </row>
+    <row r="95" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K95" s="6"/>
+    </row>
+    <row r="96" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K96" s="6"/>
+    </row>
+    <row r="97" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K97" s="6"/>
+    </row>
+    <row r="98" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K98" s="6"/>
+    </row>
+    <row r="99" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K99" s="6"/>
+    </row>
+    <row r="100" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K100" s="6"/>
+    </row>
+    <row r="101" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K101" s="6"/>
+    </row>
+    <row r="102" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K102" s="6"/>
+    </row>
+    <row r="103" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K103" s="6"/>
+    </row>
+    <row r="104" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K104" s="6"/>
+    </row>
+    <row r="105" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K105" s="6"/>
+    </row>
+    <row r="106" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K106" s="6"/>
+    </row>
+    <row r="107" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K107" s="6"/>
+    </row>
+    <row r="108" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K108" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="H7:H11"/>
+  <mergeCells count="1">
+    <mergeCell ref="B4:I4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2048,15 +2410,72 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8194B6A0-4322-4A2B-A212-EE6D3B694663}">
-  <dimension ref="A1"/>
+  <dimension ref="F2:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="6" width="42.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F2" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F3" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2082,22 +2501,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="E1" s="11" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="E1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="K1" s="11" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="K1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="11"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2282,19 +2701,19 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
       <c r="I13" s="3"/>
     </row>
   </sheetData>
@@ -2331,27 +2750,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="E1" s="11" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="E1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="N1" s="11" t="s">
+      <c r="L1" s="15"/>
+      <c r="N1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2571,16 +2990,16 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">
